--- a/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/positionImportSchema_pl.xlsx
+++ b/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/positionImportSchema_pl.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lupo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lupo/qcadoo-src/mes/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B39CF7C-8F0B-9541-9D58-AD8FB9917D19}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1686822C-5182-724B-83C3-C73D7DA11530}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -432,10 +432,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>

--- a/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/positionImportSchema_pl.xlsx
+++ b/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/positionImportSchema_pl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lupo/qcadoo-src/mes/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1686822C-5182-724B-83C3-C73D7DA11530}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921B6BB0-DCE4-1441-BC24-CCEC1E5E884B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2860" windowWidth="28800" windowHeight="16760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -400,16 +400,12 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="11" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/positionImportSchema_pl.xlsx
+++ b/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/positionImportSchema_pl.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lupo/qcadoo-src/mes/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akazmierczak\Documents\Quantum Qguar\Qcadoo\Szablony\Import do Qcadoo\propozycje\PL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921B6BB0-DCE4-1441-BC24-CCEC1E5E884B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2860" windowWidth="28800" windowHeight="16760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pozycje dok. przych. - import" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -66,8 +62,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,6 +79,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -92,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -100,29 +113,127 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
+    <tableStyle name="Styl tabeli 1" pivot="0" count="1">
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -132,6 +243,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:K2" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K2"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Produkt" dataDxfId="10"/>
+    <tableColumn id="2" name="Ilość" dataDxfId="9"/>
+    <tableColumn id="3" name="Ilość dodatkowa" dataDxfId="8"/>
+    <tableColumn id="4" name="Przelicznik" dataDxfId="7"/>
+    <tableColumn id="5" name="Cena" dataDxfId="6"/>
+    <tableColumn id="6" name="Partia" dataDxfId="5"/>
+    <tableColumn id="7" name="Data produkcji" dataDxfId="4"/>
+    <tableColumn id="8" name="Data ważności" dataDxfId="0"/>
+    <tableColumn id="9" name="Miejsce składowania" dataDxfId="3"/>
+    <tableColumn id="10" name="Typ palety" dataDxfId="2"/>
+    <tableColumn id="11" name="Numer palety" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,54 +527,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="16.83203125" customWidth="1"/>
+    <col min="1" max="8" width="16.875" customWidth="1"/>
+    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="10" max="11" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/positionImportSchema_pl.xlsx
+++ b/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/positionImportSchema_pl.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akazmierczak\Documents\Quantum Qguar\Qcadoo\Szablony\Import do Qcadoo\propozycje\PL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C238F9C5-23B7-401E-BF32-134818E5FABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pozycje dok. przych. - import" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -23,6 +35,289 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Anna Kaźmierczak</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{97C30E8B-C1E4-4E98-87AF-339FE264D60D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+Dana wymagana. Podaj numer produktu zdefiniowanego w qcadoo.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{5B0A0167-C90F-4DCF-B188-490D844A2702}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+Dana wymagana. Wartość musi być liczbowa i większa od 0. Jest to ilość w jednostce podstawowej produktu.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{9C130F5B-F50A-4AC6-8FED-687193917F63}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+Dana opcjonalna. Jeśli prowadzisz ewidencję produktu w dwóch jednostkach, to tu podaj ilość 
+w jednostce dodatkowej. Pamiętaj o podaniu w następnej kolumnie przelicznika między jednostkami.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A2F85EA2-BF11-466B-A75F-807B5702AAE5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+Dana wymagana, jeśli uzupełnisz </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Ilość dodatkowa</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <charset val="238"/>
+          </rPr>
+          <t>.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve"> Podaj jaki jest przelicznik między jednostkami. Przykład: masz jednostkę podstawową karton oraz dodatkową sztuka, a w kartonie mieści się 20 sztuk - zatem przelicznik to 20.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{B92F5121-0280-4016-BACA-A01D4407F02B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+Dana opcjonalna. Cena 
+po jakiej przyjmujesz dany produkt na magazyn, 
+np. cena zakupu.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{8CD68F67-013F-45B6-8D48-DFD67B45AB62}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+Dana opcjonalna. Numer partii przyjmowanego produktu. Na tej podstawie zostanie założona partia w genealogii i odpowiednio podpięta do dokumentu.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{9698AB71-33E9-4EF0-9B8F-B3DB274A3B59}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+Dana opcjonalna. Zapisz w formacie DD.MM.RRRR</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{7E8C0CA2-3A70-4EF8-8A86-EDAB7EDF8B1A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+Dana opcjonalna. Zapisz w formacie DD.MM.RRRR</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{C94E1D91-CDF6-43F7-9FE0-3BC83B6F3046}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+Dana opcjonalna. Podaj miejsce składowania zdefiniowane w qcadoo. Ważne, aby była to lokalizacja przypisana do magazynu wskazanego w nagłówku dokumentu.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{73B60ADA-0E29-4CCD-9069-D297DDFD61C7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+Dana opcjonalna. Jeśli składujesz produkty na paletach, to wskaż tu wartość zdefiniowaną w słowniku typów palet.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{0B72900B-3C2B-426B-8F1D-DF118B7F1990}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+Dana opcjonalna. Jeśli składujesz produkty na paletach, to wprowadź tutaj numer palety zdefiniowanej 
+w qcadoo.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
@@ -62,8 +357,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -96,6 +391,39 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,13 +445,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -132,51 +459,53 @@
     <dxf>
       <font>
         <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
       </font>
     </dxf>
     <dxf>
@@ -230,7 +559,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="Styl tabeli 1" pivot="0" count="1">
+    <tableStyle name="Styl tabeli 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
     </tableStyle>
   </tableStyles>
@@ -246,20 +575,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:K2" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="positionImportSchema_pl" displayName="positionImportSchema_pl" ref="A1:K2" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Produkt" dataDxfId="10"/>
-    <tableColumn id="2" name="Ilość" dataDxfId="9"/>
-    <tableColumn id="3" name="Ilość dodatkowa" dataDxfId="8"/>
-    <tableColumn id="4" name="Przelicznik" dataDxfId="7"/>
-    <tableColumn id="5" name="Cena" dataDxfId="6"/>
-    <tableColumn id="6" name="Partia" dataDxfId="5"/>
-    <tableColumn id="7" name="Data produkcji" dataDxfId="4"/>
-    <tableColumn id="8" name="Data ważności" dataDxfId="0"/>
-    <tableColumn id="9" name="Miejsce składowania" dataDxfId="3"/>
-    <tableColumn id="10" name="Typ palety" dataDxfId="2"/>
-    <tableColumn id="11" name="Numer palety" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produkt" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ilość" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ilość dodatkowa" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Przelicznik" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Cena" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Partia" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data produkcji" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Data ważności" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Miejsce składowania" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Typ palety" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Numer palety" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -527,7 +856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -537,53 +866,53 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="20.25" customWidth="1"/>
     <col min="10" max="11" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -595,8 +924,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/positionImportSchema_pl.xlsx
+++ b/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/positionImportSchema_pl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akazmierczak\Documents\Quantum Qguar\Qcadoo\Szablony\Import do Qcadoo\propozycje\PL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krna/Projects/mes/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C238F9C5-23B7-401E-BF32-134818E5FABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38EF282-ED04-ED43-826C-0F89C97FAE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pozycje dok. przych. - import" sheetId="1" r:id="rId1"/>
@@ -49,6 +49,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
@@ -57,6 +58,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Dana wymagana. Podaj numer produktu zdefiniowanego w qcadoo.</t>
@@ -71,6 +73,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
@@ -79,6 +82,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Dana wymagana. Wartość musi być liczbowa i większa od 0. Jest to ilość w jednostce podstawowej produktu.</t>
@@ -93,6 +97,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
@@ -101,6 +106,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Dana opcjonalna. Jeśli prowadzisz ewidencję produktu w dwóch jednostkach, to tu podaj ilość 
@@ -114,46 +120,49 @@
           <rPr>
             <b/>
             <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Dana wymagana, jeśli uzupełnisz </t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Dana wymagana, jeśli uzupełnisz </t>
         </r>
         <r>
           <rPr>
             <i/>
             <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <charset val="238"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>Ilość dodatkowa</t>
         </r>
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <charset val="238"/>
-          </rPr>
-          <t>.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t xml:space="preserve"> Podaj jaki jest przelicznik między jednostkami. Przykład: masz jednostkę podstawową karton oraz dodatkową sztuka, a w kartonie mieści się 20 sztuk - zatem przelicznik to 20.</t>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>. Podaj jaki jest przelicznik między jednostkami. Przykład: masz jednostkę podstawową karton oraz dodatkową sztuka, a w kartonie mieści się 20 sztuk - zatem przelicznik to 20.</t>
         </r>
       </text>
     </comment>
@@ -165,6 +174,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
@@ -173,6 +183,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Dana opcjonalna. Cena 
@@ -189,6 +200,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
@@ -197,6 +209,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Dana opcjonalna. Numer partii przyjmowanego produktu. Na tej podstawie zostanie założona partia w genealogii i odpowiednio podpięta do dokumentu.</t>
@@ -211,6 +224,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
@@ -219,6 +233,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Dana opcjonalna. Zapisz w formacie DD.MM.RRRR</t>
@@ -233,6 +248,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
@@ -241,6 +257,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Dana opcjonalna. Zapisz w formacie DD.MM.RRRR</t>
@@ -255,6 +272,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
@@ -263,6 +281,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Dana opcjonalna. Podaj miejsce składowania zdefiniowane w qcadoo. Ważne, aby była to lokalizacja przypisana do magazynu wskazanego w nagłówku dokumentu.</t>
@@ -275,19 +294,30 @@
           <rPr>
             <b/>
             <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Dana opcjonalna. Jeśli składujesz produkty na paletach, to wskaż tu wartość zdefiniowaną w słowniku typów palet.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dana opcjonalna. Jeśli składujesz produkty na paletach, to wskaż tu wartość zdefiniowaną w słowniku typów palet.</t>
         </r>
       </text>
     </comment>
@@ -297,20 +327,40 @@
           <rPr>
             <b/>
             <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>qcadoo MES:</t>
         </r>
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Dana opcjonalna. Jeśli składujesz produkty na paletach, to wprowadź tutaj numer palety zdefiniowanej 
-w qcadoo.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Dana opcjonalna. Jeśli składujesz produkty na paletach, to wprowadź tutaj numer palety zdefiniowanej 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>w qcadoo.</t>
         </r>
       </text>
     </comment>
@@ -348,22 +398,30 @@
     <t>Miejsce składowania</t>
   </si>
   <si>
-    <t>Typ palety</t>
+    <t>Typ nośnika</t>
   </si>
   <si>
-    <t>Numer palety</t>
+    <t>Numer nośnika</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,11 +454,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -412,17 +472,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
-      <charset val="238"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
-      <charset val="238"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -445,12 +512,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -459,7 +527,31 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
       </font>
     </dxf>
     <dxf>
@@ -475,37 +567,13 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
       </font>
     </dxf>
     <dxf>
@@ -579,16 +647,16 @@
   <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Produkt" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ilość" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ilość dodatkowa" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Przelicznik" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Cena" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Partia" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data produkcji" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Data ważności" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Miejsce składowania" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Typ palety" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Numer palety" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ilość" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ilość dodatkowa" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Przelicznik" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Cena" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Partia" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data produkcji" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Data ważności" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Miejsce składowania" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Typ nośnika" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Numer nośnika" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -863,17 +931,17 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="16.875" customWidth="1"/>
-    <col min="9" max="9" width="20.25" customWidth="1"/>
-    <col min="10" max="11" width="16.875" customWidth="1"/>
+    <col min="1" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" customWidth="1"/>
+    <col min="10" max="11" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -901,14 +969,14 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
